--- a/ope.ed.gov/2001/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2001.xlsx
+++ b/ope.ed.gov/2001/criminal-offenses-on-campus-student-housing-facilities-virginia-colleges-and-universities-crime-2001.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Criminal_Offenses_On_campus_Stu" state="visible" r:id="rId3"/>
+    <sheet sheetId="1" name="criminal-offenses-on-campus-stu" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - On-campus Student Housing Facilities</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non&amp;#45;Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses &amp;#45; Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses &amp;#45; Non&amp;#45;Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -451,52 +448,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2001.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>2396.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -504,19 +543,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231420.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>2396.0</v>
+        <v>222.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -551,19 +590,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B4">
-        <v>366793.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>222.0</v>
+        <v>851.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -575,7 +614,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K4">
         <v>0.0</v>
@@ -598,19 +637,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>851.0</v>
+        <v>1260.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -619,10 +658,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I5">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K5">
         <v>0.0</v>
@@ -631,13 +670,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M5">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N5">
         <v>0.0</v>
       </c>
       <c s="1" r="O5">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -645,19 +684,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B6">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>1260.0</v>
+        <v>5388.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -666,7 +705,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J6">
         <v>0.0</v>
@@ -678,13 +717,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M6">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N6">
         <v>0.0</v>
       </c>
       <c s="1" r="O6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -692,19 +731,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>5388.0</v>
+        <v>7489.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -722,16 +761,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M7">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N7">
         <v>0.0</v>
       </c>
       <c s="1" r="O7">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -739,19 +778,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231624.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>7489.0</v>
+        <v>1304.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -760,7 +799,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J8">
         <v>0.0</v>
@@ -769,16 +808,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L8">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M8">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N8">
         <v>0.0</v>
       </c>
       <c s="1" r="O8">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -786,19 +825,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B9">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>1304.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -833,19 +872,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231970.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>645.0</v>
+        <v>1079.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -866,7 +905,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M10">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N10">
         <v>0.0</v>
@@ -880,19 +919,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B11">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>1079.0</v>
+        <v>920.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -913,7 +952,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M11">
-        <v>3.0</v>
+        <v>39.0</v>
       </c>
       <c s="1" r="N11">
         <v>0.0</v>
@@ -927,19 +966,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B12">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>920.0</v>
+        <v>24897.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -948,25 +987,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I12">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="J12">
         <v>0.0</v>
       </c>
       <c s="1" r="K12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M12">
-        <v>39.0</v>
+        <v>17.0</v>
       </c>
       <c s="1" r="N12">
         <v>0.0</v>
       </c>
       <c s="1" r="O12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -974,19 +1013,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232186.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>24897.0</v>
+        <v>1026.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -995,25 +1034,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I13">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J13">
         <v>0.0</v>
       </c>
       <c s="1" r="K13">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L13">
         <v>1.0</v>
       </c>
       <c s="1" r="M13">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="N13">
         <v>0.0</v>
       </c>
       <c s="1" r="O13">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1021,19 +1060,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B14">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>1026.0</v>
+        <v>5787.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1048,13 +1087,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L14">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M14">
-        <v>8.0</v>
+        <v>55.0</v>
       </c>
       <c s="1" r="N14">
         <v>0.0</v>
@@ -1068,19 +1107,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>5787.0</v>
+        <v>1091.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1089,19 +1128,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J15">
         <v>0.0</v>
       </c>
       <c s="1" r="K15">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L15">
         <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>55.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1115,19 +1154,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B16">
-        <v>232308.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>1091.0</v>
+        <v>15562.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1136,25 +1175,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I16">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="J16">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K16">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L16">
         <v>2.0</v>
       </c>
-      <c s="1" r="J16">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K16">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L16">
-        <v>0.0</v>
-      </c>
       <c s="1" r="M16">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="N16">
         <v>0.0</v>
       </c>
       <c s="1" r="O16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -1165,13 +1204,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>15562.0</v>
@@ -1183,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I17">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J17">
         <v>0.0</v>
@@ -1192,16 +1231,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L17">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M17">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N17">
         <v>0.0</v>
       </c>
       <c s="1" r="O17">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1209,19 +1248,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B18">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
-        <v>15562.0</v>
+        <v>648.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1256,19 +1295,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231837.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>648.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1292,7 +1331,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N19">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O19">
         <v>0.0</v>
@@ -1303,19 +1342,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>635.0</v>
+        <v>6162.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1336,10 +1375,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M20">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N20">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O20">
         <v>0.0</v>
@@ -1350,19 +1389,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>6162.0</v>
+        <v>4114.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1371,7 +1410,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I21">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J21">
         <v>0.0</v>
@@ -1383,7 +1422,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M21">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N21">
         <v>0.0</v>
@@ -1397,19 +1436,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>4114.0</v>
+        <v>1937.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1418,7 +1457,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I22">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J22">
         <v>0.0</v>
@@ -1427,10 +1466,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L22">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="M22">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N22">
         <v>0.0</v>
@@ -1444,19 +1483,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>1937.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1465,7 +1504,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I23">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J23">
         <v>0.0</v>
@@ -1474,10 +1513,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L23">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M23">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N23">
         <v>0.0</v>
@@ -1491,19 +1530,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>202.0</v>
+        <v>1564.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1530,7 +1569,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O24">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1538,19 +1577,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>1564.0</v>
+        <v>3475.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1559,7 +1598,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J25">
         <v>0.0</v>
@@ -1571,13 +1610,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M25">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N25">
         <v>0.0</v>
       </c>
       <c s="1" r="O25">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1585,19 +1624,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232706.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>3475.0</v>
+        <v>6721.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1606,7 +1645,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I26">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J26">
         <v>0.0</v>
@@ -1615,16 +1654,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L26">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M26">
-        <v>1.0</v>
+        <v>46.0</v>
       </c>
       <c s="1" r="N26">
         <v>0.0</v>
       </c>
       <c s="1" r="O26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1632,19 +1671,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232937.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>6721.0</v>
+        <v>19627.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1653,7 +1692,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J27">
         <v>0.0</v>
@@ -1662,16 +1701,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L27">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M27">
         <v>2.0</v>
       </c>
-      <c s="1" r="M27">
-        <v>46.0</v>
-      </c>
       <c s="1" r="N27">
         <v>0.0</v>
       </c>
       <c s="1" r="O27">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1679,19 +1718,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232982.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>19627.0</v>
+        <v>9142.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1700,7 +1739,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I28">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J28">
         <v>0.0</v>
@@ -1709,16 +1748,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L28">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="M28">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N28">
         <v>0.0</v>
       </c>
       <c s="1" r="O28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1726,19 +1765,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B29">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>9142.0</v>
+        <v>727.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1756,16 +1795,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L29">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M29">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N29">
         <v>0.0</v>
       </c>
       <c s="1" r="O29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1773,19 +1812,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B30">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>727.0</v>
+        <v>1150.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1794,10 +1833,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I30">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J30">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="K30">
         <v>0.0</v>
@@ -1806,7 +1845,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M30">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
@@ -1820,19 +1859,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B31">
-        <v>233295.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
-        <v>1150.0</v>
+        <v>2689.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -1841,10 +1880,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I31">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J31">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K31">
         <v>0.0</v>
@@ -1853,7 +1892,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M31">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N31">
         <v>0.0</v>
@@ -1867,19 +1906,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B32">
-        <v>231651.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
-        <v>2689.0</v>
+        <v>1790.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -1891,16 +1930,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J32">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="K32">
         <v>0.0</v>
       </c>
       <c s="1" r="L32">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M32">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N32">
         <v>0.0</v>
@@ -1914,19 +1953,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B33">
-        <v>233426.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>1790.0</v>
+        <v>555.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -1938,7 +1977,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="J33">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K33">
         <v>0.0</v>
@@ -1947,7 +1986,7 @@
         <v>1.0</v>
       </c>
       <c s="1" r="M33">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="N33">
         <v>0.0</v>
@@ -1961,19 +2000,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B34">
-        <v>233499.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>555.0</v>
+        <v>2451.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -1991,7 +2030,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L34">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M34">
         <v>4.0</v>
@@ -2008,19 +2047,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B35">
-        <v>233541.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>2451.0</v>
+        <v>445.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2038,10 +2077,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L35">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N35">
         <v>0.0</v>
@@ -2055,19 +2094,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B36">
-        <v>233611.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>445.0</v>
+        <v>738.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2102,19 +2141,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B37">
-        <v>233718.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>738.0</v>
+        <v>1480.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2149,19 +2188,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B38">
-        <v>233897.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
-        <v>1480.0</v>
+        <v>339.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2196,19 +2235,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B39">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
-        <v>339.0</v>
+        <v>4481.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2229,13 +2268,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M39">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="N39">
         <v>0.0</v>
       </c>
       <c s="1" r="O39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -2243,19 +2282,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B40">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
-        <v>4481.0</v>
+        <v>4369.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2264,7 +2303,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J40">
         <v>0.0</v>
@@ -2273,16 +2312,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L40">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M40">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N40">
         <v>0.0</v>
       </c>
       <c s="1" r="O40">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -2290,19 +2329,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B41">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
-        <v>4369.0</v>
+        <v>22739.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2311,7 +2350,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I41">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J41">
         <v>0.0</v>
@@ -2320,16 +2359,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L41">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M41">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="N41">
         <v>0.0</v>
       </c>
       <c s="1" r="O41">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -2340,13 +2379,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>22739.0</v>
@@ -2358,7 +2397,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J42">
         <v>0.0</v>
@@ -2367,16 +2406,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L42">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M42">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N42">
         <v>0.0</v>
       </c>
       <c s="1" r="O42">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -2384,19 +2423,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B43">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
-        <v>22739.0</v>
+        <v>25001.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2405,7 +2444,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J43">
         <v>0.0</v>
@@ -2414,7 +2453,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L43">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M43">
         <v>0.0</v>
@@ -2434,13 +2473,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
         <v>25001.0</v>
@@ -2461,7 +2500,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L44">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M44">
         <v>0.0</v>
@@ -2478,19 +2517,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B45">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
-        <v>25001.0</v>
+        <v>969.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2499,7 +2538,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I45">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J45">
         <v>0.0</v>
@@ -2511,7 +2550,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M45">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N45">
         <v>0.0</v>
@@ -2525,19 +2564,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B46">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
-        <v>969.0</v>
+        <v>1311.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2558,7 +2597,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M46">
-        <v>1.0</v>
+        <v>19.0</v>
       </c>
       <c s="1" r="N46">
         <v>0.0</v>
@@ -2572,19 +2611,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B47">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
-        <v>1311.0</v>
+        <v>28203.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2593,7 +2632,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I47">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J47">
         <v>0.0</v>
@@ -2602,10 +2641,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L47">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c s="1" r="M47">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c s="1" r="N47">
         <v>0.0</v>
@@ -2622,13 +2661,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
         <v>28203.0</v>
@@ -2640,7 +2679,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I48">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J48">
         <v>0.0</v>
@@ -2649,10 +2688,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L48">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M48">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N48">
         <v>0.0</v>
@@ -2669,13 +2708,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
         <v>28203.0</v>
@@ -2716,13 +2755,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
         <v>28203.0</v>
@@ -2760,19 +2799,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B51">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>28203.0</v>
+        <v>4638.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2781,19 +2820,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I51">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J51">
         <v>0.0</v>
       </c>
       <c s="1" r="K51">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L51">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="M51">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N51">
         <v>0.0</v>
@@ -2807,19 +2846,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B52">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>4638.0</v>
+        <v>1712.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2828,25 +2867,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I52">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J52">
         <v>0.0</v>
       </c>
       <c s="1" r="K52">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L52">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M52">
+        <v>15.0</v>
+      </c>
+      <c s="1" r="N52">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O52">
         <v>2.0</v>
-      </c>
-      <c s="1" r="L52">
-        <v>4.0</v>
-      </c>
-      <c s="1" r="M52">
-        <v>2.0</v>
-      </c>
-      <c s="1" r="N52">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O52">
-        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -2854,19 +2893,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B53">
-        <v>234164.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>1712.0</v>
+        <v>1412.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2887,13 +2926,13 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M53">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N53">
         <v>0.0</v>
       </c>
       <c s="1" r="O53">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -2901,19 +2940,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B54">
-        <v>234173.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>1412.0</v>
+        <v>2072.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -2922,7 +2961,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I54">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J54">
         <v>0.0</v>
@@ -2931,10 +2970,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L54">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M54">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N54">
         <v>0.0</v>
@@ -2948,19 +2987,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B55">
-        <v>234207.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>2072.0</v>
+        <v>238.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -2969,7 +3008,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I55">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J55">
         <v>0.0</v>
@@ -2978,62 +3017,15 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L55">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M55">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N55">
         <v>0.0</v>
       </c>
       <c s="1" r="O55">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c s="1" r="A56">
-        <v>2001.0</v>
-      </c>
-      <c s="1" r="B56">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C56">
-        <v>122</v>
-      </c>
-      <c s="1" r="D56">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E56">
-        <v>123</v>
-      </c>
-      <c s="1" r="F56">
-        <v>238.0</v>
-      </c>
-      <c s="1" r="G56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O56">
         <v>0.0</v>
       </c>
     </row>
